--- a/xi. Plan de gestión de riesgos.xlsx
+++ b/xi. Plan de gestión de riesgos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\ProyectoEAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -109,9 +114,6 @@
     <t>Causa Raíz</t>
   </si>
   <si>
-    <t>Entregables Afectado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estimación de Probabilidad </t>
   </si>
   <si>
@@ -215,6 +217,9 @@
   </si>
   <si>
     <t>Calidad, Costo</t>
+  </si>
+  <si>
+    <t>Entregables Afectados (Impacto)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-240A]General"/>
+    <numFmt numFmtId="164" formatCode="[$-240A]General"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -436,7 +441,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -446,68 +451,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -827,7 +832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -837,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -849,58 +854,58 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
@@ -912,13 +917,13 @@
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
@@ -930,13 +935,13 @@
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
@@ -946,60 +951,60 @@
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1011,13 +1016,13 @@
       <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1029,13 +1034,13 @@
       <c r="H14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
@@ -1047,13 +1052,13 @@
       <c r="H15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1065,25 +1070,25 @@
       <c r="H16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -1147,259 +1152,259 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="17" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="22" customWidth="1"/>
-    <col min="6" max="11" width="11.42578125" style="22"/>
+    <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="11" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>0.2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>0.3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>0.1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="1">
         <v>0.05</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>0.2</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>0.4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
